--- a/past_problems_am/past_problems_am2.xlsx
+++ b/past_problems_am/past_problems_am2.xlsx
@@ -8,21 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\past_problems_am\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B4B42E-FA40-4F61-ADDC-84C5E4C31212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52BD2A0-F941-4D71-9366-F1CDFB969A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15210" yWindow="150" windowWidth="13920" windowHeight="14775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="0" windowWidth="12300" windowHeight="15585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="4" r:id="rId1"/>
     <sheet name="17" sheetId="5" r:id="rId2"/>
     <sheet name="18" sheetId="1" r:id="rId3"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId4"/>
-    <sheet name="format" sheetId="3" r:id="rId5"/>
+    <sheet name="19" sheetId="6" r:id="rId4"/>
+    <sheet name="20" sheetId="7" r:id="rId5"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId6"/>
+    <sheet name="format" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'16'!$A$3:$D$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'17'!$A$3:$D$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'18'!$A$3:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'19'!$A$3:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20'!$A$3:$D$28</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="31">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -313,6 +317,100 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PKを用いたクライアント認証技術の一つ。オンラインサービスがクライアントを認証する</t>
+    <rPh sb="3" eb="4">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ニンショウギジュツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証局のデジタル署名を含むサーバ証明書は偽装できない→サーバー証明書を利用すると、サーバー認証のプロセスで中間者攻撃をブロックできる</t>
+    <rPh sb="0" eb="3">
+      <t>ニンショウキョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショメイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ギソウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>チュウカンシャ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FIDOはPKを利用したクライアント認証技術。オフラインサービスがクライアントを認証する</t>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Internetショッピングでクレジットカード決済を行う際にOWの入力を求めることで本人認証を行う方式</t>
+    <rPh sb="23" eb="25">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>ホンニンニンショウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ホウシキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1126,7 +1224,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -2009,11 +2107,855 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9963EC-28C9-4E9E-9D0B-F01513F462DD}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C33)*4)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:D28" xr:uid="{5E9963EC-28C9-4E9E-9D0B-F01513F462DD}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B31 B33:B35" xr:uid="{D357BAE9-4A4E-4C18-A48F-C9152201E5DB}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDE77B1-4925-4BDF-A1F2-B64F57D2D534}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45536</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C33)*4)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:D28" xr:uid="{4DDE77B1-4925-4BDF-A1F2-B64F57D2D534}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B31 B33:B37" xr:uid="{21880068-76EF-4001-B25E-7BF19C174BA1}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2068,6 +3010,17 @@
       </c>
       <c r="D8">
         <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>2019</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2079,12 +3032,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/past_problems_am/past_problems_am2.xlsx
+++ b/past_problems_am/past_problems_am2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\past_problems_am\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52BD2A0-F941-4D71-9366-F1CDFB969A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5F78ED-4F07-4FA8-B442-2BF3A93023C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="0" windowWidth="12300" windowHeight="15585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13860" yWindow="0" windowWidth="14190" windowHeight="15585" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="4" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="18" sheetId="1" r:id="rId3"/>
     <sheet name="19" sheetId="6" r:id="rId4"/>
     <sheet name="20" sheetId="7" r:id="rId5"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId6"/>
-    <sheet name="format" sheetId="3" r:id="rId7"/>
+    <sheet name="21" sheetId="8" r:id="rId6"/>
+    <sheet name="22" sheetId="9" r:id="rId7"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId8"/>
+    <sheet name="format" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'16'!$A$3:$D$28</definedName>
@@ -27,6 +29,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'18'!$A$3:$D$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'19'!$A$3:$D$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20'!$A$3:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'21'!$A$3:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'22'!$A$3:$J$28</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="42">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -411,6 +415,179 @@
     </rPh>
     <rPh sb="49" eb="51">
       <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Adversarial examples攻撃</t>
+    <rPh sb="20" eb="22">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラウドサービスプロバイダのためのセキュリティ管理策の実施を支援する指針</t>
+    <rPh sb="23" eb="26">
+      <t>カンリサク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電磁波を傍受し解析する攻撃</t>
+    <rPh sb="0" eb="3">
+      <t>デンジハ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ボウジュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TCP23はtelnet。遠隔地からリモート操作するプロトコル</t>
+    <rPh sb="13" eb="16">
+      <t>エンカクチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VXLANはイーサネットフレームをUP/UDPとVXLANヘッダでカプセル化するトンネリングプロトコル</t>
+    <rPh sb="37" eb="38">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照製薬。参照しようとしてる値は参照先で候補キーとして存在しなくてはならない</t>
+    <rPh sb="0" eb="4">
+      <t>サンショウセイヤク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>サンショウサキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AACS：ブルーレイディスクのコンテンツ保護技術</t>
+    <rPh sb="20" eb="22">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>春</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>量子暗号＝共通鍵暗号方式で複合に必要な鍵情報を講師を用いて配送する技術</t>
+    <rPh sb="0" eb="4">
+      <t>リョウシアンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キョウツウカギ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>アンゴウホウシキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フクゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カギジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハイソウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SecurityActionは中小が情報セキュリティに取り組むことを宣言する精度</t>
+    <rPh sb="15" eb="17">
+      <t>チュウショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データリネージ＝発生から加工に至る一連の情報を示す</t>
+    <rPh sb="8" eb="10">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチレン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2524,7 +2701,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -2951,6 +3128,1027 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DFA65F-B221-4EC6-AD71-DF97EF1117D4}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C33)*4)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:D28" xr:uid="{E9DFA65F-B221-4EC6-AD71-DF97EF1117D4}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B30 B32:B39" xr:uid="{AEE23914-1AAD-46F6-B668-1AFD000684B8}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F1E737-198E-4461-BBFF-6988D24F986E}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2">
+        <f>INT(SUM(C4:C33)*4)</f>
+        <v>84</v>
+      </c>
+      <c r="I2">
+        <f>INT(SUM(I4:I33)*4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>G4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G28" si="1">G5+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:J28" xr:uid="{D1F1E737-198E-4461-BBFF-6988D24F986E}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33 H4:H28 B35:B38" xr:uid="{B4D84800-3B1A-4CBE-8A02-B492DEDAA6ED}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
   <dimension ref="B2:D9"/>
   <sheetViews>
@@ -3032,7 +4230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>

--- a/past_problems_am/past_problems_am2.xlsx
+++ b/past_problems_am/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\past_problems_am\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5F78ED-4F07-4FA8-B442-2BF3A93023C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7A9DFB-F10B-4F34-A6FC-033B6DEFDB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="0" windowWidth="14190" windowHeight="15585" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="4" r:id="rId1"/>
@@ -20,17 +20,19 @@
     <sheet name="20" sheetId="7" r:id="rId5"/>
     <sheet name="21" sheetId="8" r:id="rId6"/>
     <sheet name="22" sheetId="9" r:id="rId7"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId8"/>
-    <sheet name="format" sheetId="3" r:id="rId9"/>
+    <sheet name="23" sheetId="10" r:id="rId8"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId9"/>
+    <sheet name="format" sheetId="3" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'16'!$A$3:$D$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'17'!$A$3:$D$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'18'!$A$3:$D$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'19'!$A$3:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'18'!$A$3:$J$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'19'!$A$3:$J$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20'!$A$3:$D$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'21'!$A$3:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'21'!$A$3:$J$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'22'!$A$3:$J$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'23'!$A$3:$J$28</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="57">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -259,30 +261,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>秋</t>
-    <rPh sb="0" eb="1">
-      <t>アキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>年</t>
-    <rPh sb="0" eb="1">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>時期</t>
     <rPh sb="0" eb="2">
       <t>ジキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>得点</t>
-    <rPh sb="0" eb="2">
-      <t>トクテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -588,6 +569,309 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>春</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AESはブロックの固定長をデータ単位として暗号化。使用する鍵長は256以下</t>
+    <rPh sb="9" eb="12">
+      <t>コテイチョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVE＝製品に含まれる脆弱性を識別する識別子</t>
+    <rPh sb="4" eb="6">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>シキベツシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CAAレコード＝ドメインにたいする証明書の発行を承認された認証局のCNを指定するDNSレコード</t>
+    <rPh sb="17" eb="20">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ニンショウキョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MWの動作を監視する</t>
+    <rPh sb="3" eb="5">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末とAPでDH鍵交換を実行し、独自の鍵により暗号化通信を行う</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カギコウカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果がないもの！</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推奨候補暗号リストは今後政府推奨暗号リストに掲載される可能性ある暗号方式</t>
+    <rPh sb="0" eb="4">
+      <t>スイショウコウホ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイフ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>アンゴウホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遮蔽物により送信フレームを受信できないような状態にあること</t>
+    <rPh sb="0" eb="3">
+      <t>シャヘイブツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPPをイーサネット上で使用できるうようにしたもの</t>
+    <rPh sb="10" eb="11">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通信の状態に応じて動的にフィルタリングテーブルの更新を行う。不正を防止する効果が期待出来る</t>
+    <rPh sb="0" eb="2">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J-CISP=IPAを情報ハブとして、各業界のセキュリティ情報を横ぐしで供給する</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カクギョウカイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キョウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MWダウンロードは他の通信と見分けにくく、IPSでの遮断は難しい</t>
+    <rPh sb="9" eb="10">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ミワ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シャダン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <rPh sb="0" eb="2">
+      <t>ネンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>午前2</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWのハッシュだけでログインできることを悪用する仕組み</t>
+    <rPh sb="20" eb="22">
+      <t>アクヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>政府が求めるセキュリティ要求を満たしているクラウドサービス調達→ISMAP管理基準</t>
+    <rPh sb="0" eb="2">
+      <t>セイフ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>チョウタツ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>カンリキジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シグニチャは合致する場合</t>
+    <rPh sb="6" eb="8">
+      <t>ガッチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -620,7 +904,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +914,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,11 +943,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1396,6 +1695,208 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{99518225-CF94-4EDB-B4F9-CC0276E728F0}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEA6E80-0CB9-4995-886B-85F8190FE878}">
   <sheetPr filterMode="1"/>
@@ -1768,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1793,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1817,18 +2318,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1838,14 +2340,21 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="H1" s="1">
+        <v>45557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="C2">
-        <f>INT(SUM(C4:C33)*4)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>68</v>
+      </c>
+      <c r="I2">
+        <f>INT(SUM(I4:I28)*4)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1858,8 +2367,20 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1869,8 +2390,17 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -1881,8 +2411,18 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5">
+        <f>G4+1</f>
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6">
         <f t="shared" ref="A6:A28" si="0">A5+1</f>
         <v>3</v>
@@ -1893,8 +2433,18 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1">
+      <c r="G6">
+        <f t="shared" ref="G6:G28" si="1">G5+1</f>
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1905,8 +2455,18 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1917,8 +2477,18 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1929,8 +2499,21 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1941,8 +2524,18 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1953,8 +2546,18 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1965,8 +2568,18 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1977,8 +2590,21 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1989,8 +2615,18 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2001,8 +2637,18 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2013,8 +2659,18 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2025,8 +2681,21 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2037,8 +2706,18 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2049,8 +2728,18 @@
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2061,8 +2750,18 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2073,8 +2772,18 @@
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2085,8 +2794,18 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2097,8 +2816,18 @@
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2109,8 +2838,18 @@
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2121,8 +2860,18 @@
       <c r="C25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2133,8 +2882,18 @@
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2145,8 +2904,18 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2157,13 +2926,23 @@
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2174,7 +2953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2187,8 +2966,17 @@
       <c r="D33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2198,8 +2986,17 @@
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>6</v>
       </c>
@@ -2209,8 +3006,17 @@
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>9</v>
       </c>
@@ -2220,8 +3026,17 @@
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>10</v>
       </c>
@@ -2231,8 +3046,17 @@
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="G37">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>17</v>
       </c>
@@ -2242,8 +3066,17 @@
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="G38">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>22</v>
       </c>
@@ -2254,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>24</v>
       </c>
@@ -2266,8 +3099,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D28" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
+  <autoFilter ref="A3:J28" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8">
       <filters>
         <filter val="0"/>
       </filters>
@@ -2275,7 +3108,7 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B31 B33:B40" xr:uid="{F5F9245F-B5F3-43FA-A04A-738D0F0FB1D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B31 B33:B40 H4:H28 H34:H38" xr:uid="{F5F9245F-B5F3-43FA-A04A-738D0F0FB1D1}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2285,11 +3118,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9963EC-28C9-4E9E-9D0B-F01513F462DD}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2297,7 +3129,7 @@
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2306,13 +3138,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:10">
       <c r="C2">
         <f>INT(SUM(C4:C33)*4)</f>
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="I2">
+        <f>INT(SUM(I4:I33)*4)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2325,8 +3161,20 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2337,10 +3185,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -2351,8 +3208,18 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1">
+      <c r="G5">
+        <f>G4+1</f>
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <f t="shared" ref="A6:A28" si="0">A5+1</f>
         <v>3</v>
@@ -2363,8 +3230,18 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1">
+      <c r="G6">
+        <f t="shared" ref="G6:G28" si="1">G5+1</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2375,8 +3252,18 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2387,8 +3274,18 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2399,8 +3296,18 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2411,8 +3318,18 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2423,8 +3340,18 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2435,8 +3362,21 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2447,8 +3387,21 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2459,8 +3412,18 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2471,8 +3434,18 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2483,8 +3456,18 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2496,10 +3479,20 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2510,8 +3503,18 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2522,8 +3525,18 @@
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2534,8 +3547,18 @@
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2546,8 +3569,21 @@
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2558,8 +3594,21 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2570,8 +3619,18 @@
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2582,8 +3641,18 @@
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2594,8 +3663,18 @@
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2606,8 +3685,18 @@
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2618,8 +3707,18 @@
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2630,8 +3729,18 @@
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2641,8 +3750,17 @@
       <c r="C32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2653,10 +3771,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>8</v>
       </c>
@@ -2666,8 +3793,17 @@
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="3">
         <v>21</v>
       </c>
@@ -2677,18 +3813,43 @@
       <c r="C35">
         <v>1</v>
       </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="G36">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="G37">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D28" xr:uid="{5E9963EC-28C9-4E9E-9D0B-F01513F462DD}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:J28" xr:uid="{5E9963EC-28C9-4E9E-9D0B-F01513F462DD}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B31 B33:B35" xr:uid="{D357BAE9-4A4E-4C18-A48F-C9152201E5DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B31 B33:B35 H4:H28 H33:H37" xr:uid="{D357BAE9-4A4E-4C18-A48F-C9152201E5DB}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2848,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3129,11 +4290,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DFA65F-B221-4EC6-AD71-DF97EF1117D4}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3141,7 +4301,7 @@
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3149,14 +4309,21 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="C2">
         <f>INT(SUM(C4:C33)*4)</f>
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="I2">
+        <f>INT(SUM(I4:I28)*4)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3169,8 +4336,20 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3181,10 +4360,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -3195,8 +4383,18 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5">
+        <f>G4+1</f>
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <f t="shared" ref="A6:A28" si="0">A5+1</f>
         <v>3</v>
@@ -3207,8 +4405,18 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1">
+      <c r="G6">
+        <f t="shared" ref="G6:G28" si="1">G5+1</f>
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3219,8 +4427,18 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3231,8 +4449,18 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3243,8 +4471,18 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3255,8 +4493,21 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3267,8 +4518,21 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3280,193 +4544,352 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <f t="shared" si="0"/>
+      <c r="G26">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1">
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3477,8 +4900,18 @@
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3489,8 +4922,18 @@
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -3500,8 +4943,17 @@
       <c r="C31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3511,8 +4963,17 @@
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3522,8 +4983,17 @@
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3533,8 +5003,17 @@
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="G34">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>11</v>
       </c>
@@ -3544,8 +5023,17 @@
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="G35">
+        <v>17</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>13</v>
       </c>
@@ -3556,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>18</v>
       </c>
@@ -3567,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>21</v>
       </c>
@@ -3578,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>23</v>
       </c>
@@ -3590,16 +5078,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D28" xr:uid="{E9DFA65F-B221-4EC6-AD71-DF97EF1117D4}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:J28" xr:uid="{E9DFA65F-B221-4EC6-AD71-DF97EF1117D4}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B30 B32:B39" xr:uid="{AEE23914-1AAD-46F6-B668-1AFD000684B8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B30 B32:B39 H4:H28 H32:H35" xr:uid="{AEE23914-1AAD-46F6-B668-1AFD000684B8}">
       <formula1>"ア,イ,ウ,エ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3612,8 +5094,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3629,7 +5111,7 @@
         <v>45549</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3758,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
@@ -3777,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
@@ -4004,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
@@ -4149,11 +5631,849 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E2CD1F-8EC2-4DE9-8253-7E1A9D24F216}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45558</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1">
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>64</v>
+      </c>
+      <c r="I2">
+        <f>INT(SUM(I4:I28)*4)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" hidden="1">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>G4+1</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" hidden="1">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G28" si="1">G5+1</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" hidden="1">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" hidden="1">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" hidden="1">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" hidden="1">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" hidden="1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" hidden="1">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" hidden="1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" hidden="1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" hidden="1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" hidden="1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" hidden="1">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" hidden="1">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" hidden="1">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" hidden="1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" hidden="1">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" hidden="1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>13</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>19</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>24</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:J28" xr:uid="{87E2CD1F-8EC2-4DE9-8253-7E1A9D24F216}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33:B41 B4:B31 H4:H28 H33:H38" xr:uid="{FF0F3B64-03AB-4313-BF39-7FFD8D25C8BB}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4168,32 +6488,32 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>72</v>
@@ -4201,10 +6521,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>84</v>
@@ -4212,13 +6532,90 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>2019</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
         <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>2021</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>2022</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>2021</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>2019</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16">
+        <v>2018</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4228,206 +6625,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="C2">
-        <f>INT(SUM(C4:C33)*4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <f>A4+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <f t="shared" ref="A6:A28" si="0">A5+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B33" xr:uid="{99518225-CF94-4EDB-B4F9-CC0276E728F0}">
-      <formula1>"ア,イ,ウ,エ"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/past_problems_am/past_problems_am2.xlsx
+++ b/past_problems_am/past_problems_am2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\past_problems_am\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7A9DFB-F10B-4F34-A6FC-033B6DEFDB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC5E27F-8A70-40FD-A61D-9FCD64CDE6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14085" yWindow="720" windowWidth="12690" windowHeight="11295" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="4" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="21" sheetId="8" r:id="rId6"/>
     <sheet name="22" sheetId="9" r:id="rId7"/>
     <sheet name="23" sheetId="10" r:id="rId8"/>
-    <sheet name="まとめ" sheetId="2" r:id="rId9"/>
-    <sheet name="format" sheetId="3" r:id="rId10"/>
+    <sheet name="24" sheetId="11" r:id="rId9"/>
+    <sheet name="まとめ" sheetId="2" r:id="rId10"/>
+    <sheet name="format" sheetId="3" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'16'!$A$3:$D$28</definedName>
@@ -33,6 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'21'!$A$3:$J$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'22'!$A$3:$J$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'23'!$A$3:$J$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'24'!$A$3:$D$28</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="68">
   <si>
     <t>回答日</t>
     <rPh sb="0" eb="3">
@@ -872,6 +874,146 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAは電子証明書を発行してよいか審査する機関</t>
+    <rPh sb="3" eb="8">
+      <t>デンシショウメイショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シンサ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MACはCKで作る</t>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CRLに登録されているのはシリアル番号</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISMAPはSaaSのセキュリティ評価</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIM3＝セキュリティインシデント管理の成熟度を評価</t>
+    <rPh sb="17" eb="19">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>セイジュクド</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CWEは脆弱性の種類の識別子</t>
+    <rPh sb="4" eb="7">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シキベツシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no-cache=キャッシュの再利用時に、オリジンサーバーに問い合わせる。No-store=キャッシュを保持しない</t>
+    <rPh sb="15" eb="19">
+      <t>サイリヨウジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス番号、先ポート、元ポート</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム開発・保守にかかわる管理</t>
+    <rPh sb="4" eb="6">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトの仕様と性質が整合しているかを論理的に検証する</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイシツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイゴウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ロンリテキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元IP、TTL。プロトコル番号はIPヘッダに含まれる</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -943,13 +1085,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1696,11 +1837,170 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
+  <dimension ref="B2:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>2018</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>2016</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>2022</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>2019</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>2021</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>2022</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>2021</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>2019</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16">
+        <v>2018</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6107E2A7-C607-427C-827A-A8833D120E10}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F79C0-50DA-4654-8081-884D0982C9C9}">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5635,7 +5935,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
@@ -5708,13 +6008,12 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5"/>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" hidden="1">
       <c r="A5">
@@ -5731,13 +6030,12 @@
         <f>G4+1</f>
         <v>2</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5"/>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" hidden="1">
       <c r="A6">
@@ -5757,13 +6055,12 @@
         <f t="shared" ref="G6:G28" si="1">G5+1</f>
         <v>3</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5"/>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" hidden="1">
       <c r="A7">
@@ -5780,13 +6077,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5"/>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" hidden="1">
       <c r="A8">
@@ -5803,13 +6099,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5"/>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
@@ -5826,13 +6121,12 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5"/>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
@@ -5849,13 +6143,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5"/>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" hidden="1">
       <c r="A11">
@@ -5875,13 +6168,12 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5"/>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" hidden="1">
       <c r="A12">
@@ -5898,13 +6190,12 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5"/>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10" hidden="1">
       <c r="A13">
@@ -5921,13 +6212,12 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5"/>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
@@ -5944,13 +6234,12 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5"/>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" hidden="1">
       <c r="A15">
@@ -5970,13 +6259,12 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
@@ -5993,15 +6281,14 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" hidden="1">
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6016,15 +6303,14 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" hidden="1">
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6039,15 +6325,14 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" hidden="1">
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6062,15 +6347,14 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" hidden="1">
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6085,15 +6369,14 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" hidden="1">
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6108,15 +6391,14 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="5">
-        <v>1</v>
-      </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6131,15 +6413,14 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" hidden="1">
+      <c r="H22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6154,15 +6435,14 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" hidden="1">
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6177,15 +6457,14 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" hidden="1">
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6200,15 +6479,14 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" hidden="1">
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6223,15 +6501,14 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6246,15 +6523,14 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" hidden="1">
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6269,15 +6545,14 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="5">
-        <v>1</v>
-      </c>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -6310,10 +6585,10 @@
       <c r="G33">
         <v>6</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="5">
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33">
         <v>1</v>
       </c>
     </row>
@@ -6330,10 +6605,10 @@
       <c r="G34">
         <v>7</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="5">
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34">
         <v>0</v>
       </c>
     </row>
@@ -6350,10 +6625,10 @@
       <c r="G35">
         <v>11</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="5">
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35">
         <v>1</v>
       </c>
     </row>
@@ -6370,10 +6645,10 @@
       <c r="G36">
         <v>13</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="5">
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36">
         <v>1</v>
       </c>
     </row>
@@ -6390,10 +6665,10 @@
       <c r="G37">
         <v>19</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="5">
+      <c r="H37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37">
         <v>1</v>
       </c>
     </row>
@@ -6410,10 +6685,10 @@
       <c r="G38">
         <v>24</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="5">
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38">
         <v>1</v>
       </c>
     </row>
@@ -6469,160 +6744,517 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2EC295-5F0F-4892-8D30-04652D76C42A}">
-  <dimension ref="B2:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F4D8AB-1A13-45DA-9FD0-0E01038EB1A9}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45564</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2">
+        <f>INT(SUM(C4:C28)*4)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ref="A6:A28" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1">
+      <c r="A8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1">
+      <c r="A24">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6">
-        <v>2018</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7">
-        <v>2016</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8">
-        <v>2022</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9">
-        <v>2017</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10">
-        <v>2019</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11">
-        <v>2020</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12">
-        <v>2021</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13">
-        <v>2022</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14">
-        <v>2021</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15">
-        <v>2019</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16">
-        <v>2018</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16">
-        <v>80</v>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:D28" xr:uid="{26F4D8AB-1A13-45DA-9FD0-0E01038EB1A9}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6107E2A7-C607-427C-827A-A8833D120E10}"/>
-  </hyperlinks>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B32 B34:B43" xr:uid="{08E26FD8-4DCB-4AD0-8FBF-67168275E1C8}">
+      <formula1>"ア,イ,ウ,エ"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>